--- a/biology/Botanique/Pique_(gemmage)/Pique_(gemmage).xlsx
+++ b/biology/Botanique/Pique_(gemmage)/Pique_(gemmage).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pique est l'incision faite périodiquement en haut de la care par les résiniers (gemmeurs) des Landes de Gascogne. C'est la principale activité qui occupe les gemmeurs lors de la campagne de gemmage.
 </t>
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La pique est une action récurrente du gemmeur. La première de l'année se fait vers la mi-mars.
 Elle consiste à entretenir la care, c'est-à-dire entailler de nouveau le pin maritime grâce à un outil spécifique (hapchot, rasclet ou rainette suivant la hauteur et le type de procédé utilisé) pour raviver la blessure et assurer un débit de résine suffisant.
